--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,27 +46,27 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
@@ -76,25 +76,37 @@
     <t>instead</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>di</t>
@@ -103,7 +115,7 @@
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>though</t>
   </si>
   <si>
     <t>bit</t>
@@ -112,48 +124,51 @@
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>work</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>could</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
@@ -163,12 +178,12 @@
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
@@ -178,12 +193,12 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -193,12 +208,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -211,30 +226,30 @@
     <t>perfect</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -244,10 +259,10 @@
     <t>game</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>nice</t>
   </si>
   <si>
     <t>play</t>
@@ -611,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +695,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,16 +766,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,16 +816,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C6">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6989247311827957</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="L7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6909090909090909</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.660377358490566</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6857142857142857</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.5767575322812052</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>295</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6359223300970874</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.5507246376811594</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.5124481327800829</v>
+        <v>0.5456431535269709</v>
       </c>
       <c r="L11">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M11">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.4688524590163934</v>
+        <v>0.4692370795734208</v>
       </c>
       <c r="L12">
         <v>572</v>
       </c>
       <c r="M12">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.3944954128440367</v>
+        <v>0.3975535168195719</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>0.3855421686746988</v>
+      </c>
+      <c r="L14">
         <v>64</v>
       </c>
-      <c r="K14">
-        <v>0.3795180722891566</v>
-      </c>
-      <c r="L14">
-        <v>63</v>
-      </c>
       <c r="M14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5159420289855072</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C15">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.3728813559322034</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>37</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4603174603174603</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.3583333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4251968503937008</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,31 +1413,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.3386243386243386</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>125</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1445,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4216867469879518</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4170616113744076</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="C19">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D19">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,19 +1513,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.2237762237762238</v>
+        <v>0.234375</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1530,13 +1545,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4140625</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C20">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="K20">
-        <v>0.2096774193548387</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1572,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>147</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1580,13 +1595,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1598,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.1927710843373494</v>
+        <v>0.21285140562249</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1622,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1630,13 +1645,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.359375</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1648,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.176</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1672,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1680,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3168316831683168</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1698,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.1735319894829097</v>
+        <v>0.1700262927256792</v>
       </c>
       <c r="L23">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M23">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1722,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>943</v>
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1730,13 +1745,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3146067415730337</v>
+        <v>0.3671875</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1748,31 +1763,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.09497206703910614</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1780,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2551020408163265</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1798,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.08187134502923976</v>
+        <v>0.09421702404158544</v>
       </c>
       <c r="L25">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="M25">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>1413</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1830,13 +1845,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2525773195876289</v>
+        <v>0.359375</v>
       </c>
       <c r="C26">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1848,31 +1863,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>0.08021390374331551</v>
+        <v>0.0859375</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>344</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1880,13 +1895,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2393162393162393</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1898,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>0.07586206896551724</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1922,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>268</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1930,49 +1945,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2103746397694524</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C28">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>274</v>
+        <v>86</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K28">
-        <v>0.0559254327563249</v>
+        <v>0.04679144385026738</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N28">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="O28">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1980,13 +1995,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1992753623188406</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1998,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>221</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2006,13 +2021,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.189873417721519</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2024,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>256</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2032,13 +2047,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1824925816023739</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D31">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2050,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>551</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2058,13 +2073,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1785714285714286</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2076,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>115</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2084,13 +2099,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.17</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2102,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2110,25 +2125,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1677215189873418</v>
+        <v>0.1961367013372957</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>263</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2136,13 +2151,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1635514018691589</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2154,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>179</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2162,13 +2177,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1519823788546255</v>
+        <v>0.18</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2180,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>385</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2188,25 +2203,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1465968586387434</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>163</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2214,13 +2229,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1428571428571428</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2232,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>150</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2240,25 +2255,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1260162601626016</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2266,25 +2281,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.112781954887218</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>236</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2292,25 +2307,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08277404921700224</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2318,25 +2333,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07627118644067797</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>327</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2344,25 +2359,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.06611570247933884</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>565</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2370,25 +2385,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06575342465753424</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>341</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2396,25 +2411,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05844980940279543</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="C45">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>741</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2422,13 +2437,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.05045871559633028</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D46">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E46">
         <v>0.03</v>
@@ -2440,7 +2455,137 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>621</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.07605633802816901</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.06942148760330578</v>
+      </c>
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="D48">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.05209656925031766</v>
+      </c>
+      <c r="C49">
+        <v>41</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>0.15</v>
+      </c>
+      <c r="F49">
+        <v>0.85</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.0514018691588785</v>
+      </c>
+      <c r="C50">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50">
+        <v>0.04</v>
+      </c>
+      <c r="F50">
+        <v>0.96</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.04294478527607362</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
+      </c>
+      <c r="D51">
+        <v>31</v>
+      </c>
+      <c r="E51">
+        <v>0.1</v>
+      </c>
+      <c r="F51">
+        <v>0.9</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>624</v>
       </c>
     </row>
   </sheetData>
